--- a/Project Documents/Enemies.xlsx
+++ b/Project Documents/Enemies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00193855\Desktop\Push-Penguin-3D\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00193855\Desktop\Push-Penguin-3D\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Eg. Penguin/Player</t>
   </si>
@@ -56,67 +56,79 @@
     <t xml:space="preserve">Return </t>
   </si>
   <si>
+    <t>https://unity3d.com/learn/tutorials/topics/scripting/interfaces</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
+  <si>
+    <t>Kill</t>
+  </si>
+  <si>
+    <t>IsInIceBlockLineOfFire</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>IceBlock/World?</t>
+  </si>
+  <si>
+    <t>Is the enemy in a position to be crushed by the IceBlock? If yes, fire Kill()</t>
+  </si>
+  <si>
+    <t>MovedToNewTile</t>
+  </si>
+  <si>
+    <t>Tells the world that the enemy has moved to a new tile, and stores that tile</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Rotate</t>
+  </si>
+  <si>
+    <t>Rotate 90, -90, 180, or -180 degrees</t>
+  </si>
+  <si>
+    <t>Move to enemy to a new position, straight ahead of the current position, then call rotate</t>
+  </si>
+  <si>
+    <t>The enemy is killed</t>
+  </si>
+  <si>
+    <t>World.enemyPositionList</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Create a new enemy (i.e. spawn from egg), place at egg location</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name of InterFace </t>
   </si>
   <si>
-    <t>https://unity3d.com/learn/tutorials/topics/scripting/interfaces</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Enemies</t>
-  </si>
-  <si>
-    <t>Kill</t>
-  </si>
-  <si>
-    <t>IsInIceBlockLineOfFire</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>IceBlock/World?</t>
-  </si>
-  <si>
-    <t>Is the enemy in a position to be crushed by the IceBlock? If yes, fire Kill()</t>
-  </si>
-  <si>
-    <t>MovedToNewTile</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Tells the world that the enemy has moved to a new tile, and stores that tile</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>Rotate</t>
-  </si>
-  <si>
-    <t>Rotate 90, -90, 180, or -180 degrees</t>
-  </si>
-  <si>
-    <t>Move to enemy to a new position, straight ahead of the current position, then call rotate</t>
-  </si>
-  <si>
-    <t>The enemy is killed</t>
-  </si>
-  <si>
-    <t>World.enemyPositionList</t>
-  </si>
-  <si>
-    <t>Constructor</t>
-  </si>
-  <si>
-    <t>Egg/World</t>
-  </si>
-  <si>
-    <t>Create a new enemy (i.e. spawn from egg), place at egg location</t>
+    <t>void</t>
+  </si>
+  <si>
+    <t>CanPushBlock</t>
+  </si>
+  <si>
+    <t>Attempts to push ice block/rock</t>
+  </si>
+  <si>
+    <t>GameManager</t>
+  </si>
+  <si>
+    <t>Egg/World/GameManager</t>
+  </si>
+  <si>
+    <t>World:</t>
   </si>
 </sst>
 </file>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,28 +464,31 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -481,31 +496,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -519,21 +534,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -547,37 +573,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
